--- a/data/IEEE9/Market Data/ieee9_market_data_2025.xlsx
+++ b/data/IEEE9/Market Data/ieee9_market_data_2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A21197E-7669-4178-AA19-A89ABDCF410F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14050150-19EF-414F-BBD2-7B04AF656E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6870" yWindow="3435" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-12645" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>5.0000000000000001E-3</v>
+            <v>0.01</v>
           </cell>
         </row>
         <row r="5">
@@ -1325,23 +1325,24 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
@@ -1355,7 +1356,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1363,7 +1364,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1371,16 +1372,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <f>(1+[1]Main!$B$4)^($B$3-[1]Main!$B$1)</f>
-        <v>1.0252512531281242</v>
+        <v>1.0510100500999999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1399,13 +1400,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E73F7F-45E0-423B-A01B-B6DF6F75CAB7}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1482,310 +1483,310 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Winter'!B2*Scenarios!$B$6</f>
-        <v>44.813732274230304</v>
+        <v>45.939649289870999</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Winter'!C2*Scenarios!$B$6</f>
-        <v>41.814872358830542</v>
+        <v>42.865444893328494</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Winter'!D2*Scenarios!$B$6</f>
-        <v>40.038624562786062</v>
+        <v>41.044569981530245</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Winter'!E2*Scenarios!$B$6</f>
-        <v>37.547264017684732</v>
+        <v>38.490615559787251</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Winter'!F2*Scenarios!$B$6</f>
-        <v>38.667351011727206</v>
+        <v>39.638844039521501</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Winter'!G2*Scenarios!$B$6</f>
-        <v>41.773862308705425</v>
+        <v>42.823404491324503</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Winter'!H2*Scenarios!$B$6</f>
-        <v>50.539760522950878</v>
+        <v>51.8095404196795</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Winter'!I2*Scenarios!$B$6</f>
-        <v>52.89271214887993</v>
+        <v>54.221608484659001</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Winter'!J2*Scenarios!$B$6</f>
-        <v>55.619880482200735</v>
+        <v>57.017295217924996</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Winter'!K2*Scenarios!$B$6</f>
-        <v>55.196964340285383</v>
+        <v>56.583753572258743</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Winter'!L2*Scenarios!$B$6</f>
-        <v>54.133266165164962</v>
+        <v>55.493330645280004</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Winter'!M2*Scenarios!$B$6</f>
-        <v>53.869263967484457</v>
+        <v>55.22269555737924</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Winter'!N2*Scenarios!$B$6</f>
-        <v>51.782877667368723</v>
+        <v>53.083890105425738</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Winter'!O2*Scenarios!$B$6</f>
-        <v>51.052386149514945</v>
+        <v>52.335045444729495</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Winter'!P2*Scenarios!$B$6</f>
-        <v>50.050203049582201</v>
+        <v>51.307683120756749</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Winter'!Q2*Scenarios!$B$6</f>
-        <v>50.15016504676219</v>
+        <v>51.410156600641493</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Winter'!R2*Scenarios!$B$6</f>
-        <v>50.924229742873926</v>
+        <v>52.203669188466996</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Winter'!S2*Scenarios!$B$6</f>
-        <v>53.441221569303472</v>
+        <v>54.783898861462497</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Winter'!T2*Scenarios!$B$6</f>
-        <v>55.999223445858149</v>
+        <v>57.406168936462002</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Winter'!U2*Scenarios!$B$6</f>
-        <v>56.429828972171961</v>
+        <v>57.847593157504001</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Winter'!V2*Scenarios!$B$6</f>
-        <v>55.12775988069923</v>
+        <v>56.51281039387699</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Winter'!W2*Scenarios!$B$6</f>
-        <v>51.664973773258993</v>
+        <v>52.963023949664247</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Winter'!X2*Scenarios!$B$6</f>
-        <v>46.630990120399908</v>
+        <v>47.802564603673247</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Winter'!Y2*Scenarios!$B$6</f>
-        <v>43.767975996039617</v>
+        <v>44.867619038768993</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Winter'!B3*Scenarios!$B$6</f>
-        <v>41.850756152690025</v>
+        <v>42.902230245081995</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Winter'!C3*Scenarios!$B$6</f>
-        <v>39.502930783026628</v>
+        <v>40.495417230352999</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Winter'!D3*Scenarios!$B$6</f>
-        <v>36.944928906471951</v>
+        <v>37.873147155353493</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Winter'!E3*Scenarios!$B$6</f>
-        <v>35.294274388935669</v>
+        <v>36.181020974692494</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Winter'!F3*Scenarios!$B$6</f>
-        <v>37.257630538676032</v>
+        <v>38.193705220634001</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Winter'!G3*Scenarios!$B$6</f>
-        <v>39.246617969744591</v>
+        <v>40.232664717828001</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Winter'!H3*Scenarios!$B$6</f>
-        <v>45.31610538826309</v>
+        <v>46.45464421442</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Winter'!I3*Scenarios!$B$6</f>
-        <v>47.335850356925491</v>
+        <v>48.525134013116997</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Winter'!J3*Scenarios!$B$6</f>
-        <v>49.704180751651464</v>
+        <v>50.952967228848003</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Winter'!K3*Scenarios!$B$6</f>
-        <v>50.0373874089181</v>
+        <v>51.2945454951305</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Winter'!L3*Scenarios!$B$6</f>
-        <v>48.596909398273091</v>
+        <v>49.817876374740003</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Winter'!M3*Scenarios!$B$6</f>
-        <v>47.597289426473161</v>
+        <v>48.793141575892491</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Winter'!N3*Scenarios!$B$6</f>
-        <v>46.141432647031223</v>
+        <v>47.300707304750489</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Winter'!O3*Scenarios!$B$6</f>
-        <v>45.654438301795366</v>
+        <v>46.801477530953001</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Winter'!P3*Scenarios!$B$6</f>
-        <v>43.619314564336044</v>
+        <v>44.715222581504499</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Winter'!Q3*Scenarios!$B$6</f>
-        <v>43.275855394538119</v>
+        <v>44.363134214721001</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Winter'!R3*Scenarios!$B$6</f>
-        <v>44.167823984759586</v>
+        <v>45.277512958307994</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Winter'!S3*Scenarios!$B$6</f>
-        <v>48.6994345235859</v>
+        <v>49.922977379749994</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Winter'!T3*Scenarios!$B$6</f>
-        <v>50.985744818061619</v>
+        <v>52.266729791472997</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Winter'!U3*Scenarios!$B$6</f>
-        <v>51.785440795501557</v>
+        <v>53.086517630551</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Winter'!V3*Scenarios!$B$6</f>
-        <v>52.072511146377423</v>
+        <v>53.380800444578995</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Winter'!W3*Scenarios!$B$6</f>
-        <v>49.760569570573502</v>
+        <v>51.010772781603492</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Winter'!X3*Scenarios!$B$6</f>
-        <v>45.064918831246693</v>
+        <v>46.197146752145493</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Winter'!Y3*Scenarios!$B$6</f>
-        <v>42.76322976797406</v>
+        <v>43.837629189670999</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Winter'!B4*Scenarios!$B$6</f>
-        <v>47.776708395770584</v>
+        <v>48.977068334659997</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Winter'!C4*Scenarios!$B$6</f>
-        <v>44.126813934634463</v>
+        <v>45.235472556303996</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Winter'!D4*Scenarios!$B$6</f>
-        <v>43.132320219100187</v>
+        <v>44.215992807706996</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Winter'!E4*Scenarios!$B$6</f>
-        <v>39.800253646433781</v>
+        <v>40.800210144881994</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Winter'!F4*Scenarios!$B$6</f>
-        <v>40.077071484778379</v>
+        <v>41.083982858409001</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Winter'!G4*Scenarios!$B$6</f>
-        <v>44.301106647666245</v>
+        <v>45.414144264820997</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Winter'!H4*Scenarios!$B$6</f>
-        <v>55.763415657638674</v>
+        <v>57.164436624938993</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Winter'!I4*Scenarios!$B$6</f>
-        <v>58.449573940834355</v>
+        <v>59.91808295620099</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Winter'!J4*Scenarios!$B$6</f>
-        <v>61.535580212750013</v>
+        <v>63.081623207001996</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Winter'!K4*Scenarios!$B$6</f>
-        <v>60.356541271652667</v>
+        <v>61.872961649386994</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Winter'!L4*Scenarios!$B$6</f>
-        <v>59.669622932056825</v>
+        <v>61.168784915819998</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Winter'!M4*Scenarios!$B$6</f>
-        <v>60.141238508495761</v>
+        <v>61.652249538865995</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Winter'!N4*Scenarios!$B$6</f>
-        <v>57.42432268770623</v>
+        <v>58.867072906100994</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Winter'!O4*Scenarios!$B$6</f>
-        <v>56.450333997234516</v>
+        <v>57.868613358505996</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Winter'!P4*Scenarios!$B$6</f>
-        <v>56.481091534828366</v>
+        <v>57.900143660009</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Winter'!Q4*Scenarios!$B$6</f>
-        <v>57.024474698986261</v>
+        <v>58.457178986561992</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Winter'!R4*Scenarios!$B$6</f>
-        <v>57.680635500988259</v>
+        <v>59.129825418625991</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Winter'!S4*Scenarios!$B$6</f>
-        <v>58.183008615021045</v>
+        <v>59.644820343174999</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Winter'!T4*Scenarios!$B$6</f>
-        <v>61.012702073654665</v>
+        <v>62.545608081450993</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Winter'!U4*Scenarios!$B$6</f>
-        <v>61.074217148842358</v>
+        <v>62.608668684456994</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Winter'!V4*Scenarios!$B$6</f>
-        <v>58.183008615021045</v>
+        <v>59.644820343174999</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Winter'!W4*Scenarios!$B$6</f>
-        <v>53.569377975944484</v>
+        <v>54.915275117724995</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Winter'!X4*Scenarios!$B$6</f>
-        <v>48.197061409553115</v>
+        <v>49.407982455200994</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Winter'!Y4*Scenarios!$B$6</f>
-        <v>44.772722224105181</v>
+        <v>45.897608887867001</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1811,7 +1812,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1851,9 +1852,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1930,310 +1931,310 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Flexibility, Winter'!B2*Scenarios!$B$6</f>
-        <v>49.330391232281819</v>
+        <v>50.56978648141569</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Flexibility, Winter'!C2*Scenarios!$B$6</f>
-        <v>49.330391232281819</v>
+        <v>50.56978648141569</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Flexibility, Winter'!D2*Scenarios!$B$6</f>
-        <v>49.330391232281819</v>
+        <v>50.56978648141569</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Flexibility, Winter'!E2*Scenarios!$B$6</f>
-        <v>49.330391232281819</v>
+        <v>50.56978648141569</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Flexibility, Winter'!F2*Scenarios!$B$6</f>
-        <v>49.330391232281819</v>
+        <v>50.56978648141569</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Flexibility, Winter'!G2*Scenarios!$B$6</f>
-        <v>49.330391232281819</v>
+        <v>50.56978648141569</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Flexibility, Winter'!H2*Scenarios!$B$6</f>
-        <v>49.330391232281819</v>
+        <v>50.56978648141569</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Flexibility, Winter'!I2*Scenarios!$B$6</f>
-        <v>49.330391232281819</v>
+        <v>50.56978648141569</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Flexibility, Winter'!J2*Scenarios!$B$6</f>
-        <v>49.330391232281819</v>
+        <v>50.56978648141569</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Flexibility, Winter'!K2*Scenarios!$B$6</f>
-        <v>49.330391232281819</v>
+        <v>50.56978648141569</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Flexibility, Winter'!L2*Scenarios!$B$6</f>
-        <v>49.330391232281819</v>
+        <v>50.56978648141569</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Flexibility, Winter'!M2*Scenarios!$B$6</f>
-        <v>49.330391232281819</v>
+        <v>50.56978648141569</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Flexibility, Winter'!N2*Scenarios!$B$6</f>
-        <v>49.330391232281819</v>
+        <v>50.56978648141569</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Flexibility, Winter'!O2*Scenarios!$B$6</f>
-        <v>49.330391232281819</v>
+        <v>50.56978648141569</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Flexibility, Winter'!P2*Scenarios!$B$6</f>
-        <v>49.330391232281819</v>
+        <v>50.56978648141569</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Flexibility, Winter'!Q2*Scenarios!$B$6</f>
-        <v>49.330391232281819</v>
+        <v>50.56978648141569</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Flexibility, Winter'!R2*Scenarios!$B$6</f>
-        <v>49.330391232281819</v>
+        <v>50.56978648141569</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Flexibility, Winter'!S2*Scenarios!$B$6</f>
-        <v>49.330391232281819</v>
+        <v>50.56978648141569</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Flexibility, Winter'!T2*Scenarios!$B$6</f>
-        <v>49.330391232281819</v>
+        <v>50.56978648141569</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Flexibility, Winter'!U2*Scenarios!$B$6</f>
-        <v>49.330391232281819</v>
+        <v>50.56978648141569</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Flexibility, Winter'!V2*Scenarios!$B$6</f>
-        <v>49.330391232281819</v>
+        <v>50.56978648141569</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Flexibility, Winter'!W2*Scenarios!$B$6</f>
-        <v>49.330391232281819</v>
+        <v>50.56978648141569</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Flexibility, Winter'!X2*Scenarios!$B$6</f>
-        <v>49.330391232281819</v>
+        <v>50.56978648141569</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Flexibility, Winter'!Y2*Scenarios!$B$6</f>
-        <v>49.330391232281819</v>
+        <v>50.56978648141569</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Flexibility, Winter'!B3*Scenarios!$B$6</f>
-        <v>45.111482325659601</v>
+        <v>46.244880125254205</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Flexibility, Winter'!C3*Scenarios!$B$6</f>
-        <v>45.111482325659601</v>
+        <v>46.244880125254205</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Flexibility, Winter'!D3*Scenarios!$B$6</f>
-        <v>45.111482325659601</v>
+        <v>46.244880125254205</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Flexibility, Winter'!E3*Scenarios!$B$6</f>
-        <v>45.111482325659601</v>
+        <v>46.244880125254205</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Flexibility, Winter'!F3*Scenarios!$B$6</f>
-        <v>45.111482325659601</v>
+        <v>46.244880125254205</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Flexibility, Winter'!G3*Scenarios!$B$6</f>
-        <v>45.111482325659601</v>
+        <v>46.244880125254205</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Flexibility, Winter'!H3*Scenarios!$B$6</f>
-        <v>45.111482325659601</v>
+        <v>46.244880125254205</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Flexibility, Winter'!I3*Scenarios!$B$6</f>
-        <v>45.111482325659601</v>
+        <v>46.244880125254205</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Flexibility, Winter'!J3*Scenarios!$B$6</f>
-        <v>45.111482325659601</v>
+        <v>46.244880125254205</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Flexibility, Winter'!K3*Scenarios!$B$6</f>
-        <v>45.111482325659601</v>
+        <v>46.244880125254205</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Flexibility, Winter'!L3*Scenarios!$B$6</f>
-        <v>45.111482325659601</v>
+        <v>46.244880125254205</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Flexibility, Winter'!M3*Scenarios!$B$6</f>
-        <v>45.111482325659601</v>
+        <v>46.244880125254205</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Flexibility, Winter'!N3*Scenarios!$B$6</f>
-        <v>45.111482325659601</v>
+        <v>46.244880125254205</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Flexibility, Winter'!O3*Scenarios!$B$6</f>
-        <v>45.111482325659601</v>
+        <v>46.244880125254205</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Flexibility, Winter'!P3*Scenarios!$B$6</f>
-        <v>45.111482325659601</v>
+        <v>46.244880125254205</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Flexibility, Winter'!Q3*Scenarios!$B$6</f>
-        <v>45.111482325659601</v>
+        <v>46.244880125254205</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Flexibility, Winter'!R3*Scenarios!$B$6</f>
-        <v>45.111482325659601</v>
+        <v>46.244880125254205</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Flexibility, Winter'!S3*Scenarios!$B$6</f>
-        <v>45.111482325659601</v>
+        <v>46.244880125254205</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Flexibility, Winter'!T3*Scenarios!$B$6</f>
-        <v>45.111482325659601</v>
+        <v>46.244880125254205</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Flexibility, Winter'!U3*Scenarios!$B$6</f>
-        <v>45.111482325659601</v>
+        <v>46.244880125254205</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Flexibility, Winter'!V3*Scenarios!$B$6</f>
-        <v>45.111482325659601</v>
+        <v>46.244880125254205</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Flexibility, Winter'!W3*Scenarios!$B$6</f>
-        <v>45.111482325659601</v>
+        <v>46.244880125254205</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Flexibility, Winter'!X3*Scenarios!$B$6</f>
-        <v>45.111482325659601</v>
+        <v>46.244880125254205</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Flexibility, Winter'!Y3*Scenarios!$B$6</f>
-        <v>45.111482325659601</v>
+        <v>46.244880125254205</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Flexibility, Winter'!B4*Scenarios!$B$6</f>
-        <v>53.549300138904059</v>
+        <v>54.894692837577203</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Flexibility, Winter'!C4*Scenarios!$B$6</f>
-        <v>53.549300138904059</v>
+        <v>54.894692837577203</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Flexibility, Winter'!D4*Scenarios!$B$6</f>
-        <v>53.549300138904059</v>
+        <v>54.894692837577203</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Flexibility, Winter'!E4*Scenarios!$B$6</f>
-        <v>53.549300138904059</v>
+        <v>54.894692837577203</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Flexibility, Winter'!F4*Scenarios!$B$6</f>
-        <v>53.549300138904059</v>
+        <v>54.894692837577203</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Flexibility, Winter'!G4*Scenarios!$B$6</f>
-        <v>53.549300138904059</v>
+        <v>54.894692837577203</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Flexibility, Winter'!H4*Scenarios!$B$6</f>
-        <v>53.549300138904059</v>
+        <v>54.894692837577203</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Flexibility, Winter'!I4*Scenarios!$B$6</f>
-        <v>53.549300138904059</v>
+        <v>54.894692837577203</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Flexibility, Winter'!J4*Scenarios!$B$6</f>
-        <v>53.549300138904059</v>
+        <v>54.894692837577203</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Flexibility, Winter'!K4*Scenarios!$B$6</f>
-        <v>53.549300138904059</v>
+        <v>54.894692837577203</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Flexibility, Winter'!L4*Scenarios!$B$6</f>
-        <v>53.549300138904059</v>
+        <v>54.894692837577203</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Flexibility, Winter'!M4*Scenarios!$B$6</f>
-        <v>53.549300138904059</v>
+        <v>54.894692837577203</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Flexibility, Winter'!N4*Scenarios!$B$6</f>
-        <v>53.549300138904059</v>
+        <v>54.894692837577203</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Flexibility, Winter'!O4*Scenarios!$B$6</f>
-        <v>53.549300138904059</v>
+        <v>54.894692837577203</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Flexibility, Winter'!P4*Scenarios!$B$6</f>
-        <v>53.549300138904059</v>
+        <v>54.894692837577203</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Flexibility, Winter'!Q4*Scenarios!$B$6</f>
-        <v>53.549300138904059</v>
+        <v>54.894692837577203</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Flexibility, Winter'!R4*Scenarios!$B$6</f>
-        <v>53.549300138904059</v>
+        <v>54.894692837577203</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Flexibility, Winter'!S4*Scenarios!$B$6</f>
-        <v>53.549300138904059</v>
+        <v>54.894692837577203</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Flexibility, Winter'!T4*Scenarios!$B$6</f>
-        <v>53.549300138904059</v>
+        <v>54.894692837577203</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Flexibility, Winter'!U4*Scenarios!$B$6</f>
-        <v>53.549300138904059</v>
+        <v>54.894692837577203</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Flexibility, Winter'!V4*Scenarios!$B$6</f>
-        <v>53.549300138904059</v>
+        <v>54.894692837577203</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Flexibility, Winter'!W4*Scenarios!$B$6</f>
-        <v>53.549300138904059</v>
+        <v>54.894692837577203</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Flexibility, Winter'!X4*Scenarios!$B$6</f>
-        <v>53.549300138904059</v>
+        <v>54.894692837577203</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Flexibility, Winter'!Y4*Scenarios!$B$6</f>
-        <v>53.549300138904059</v>
+        <v>54.894692837577203</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2259,7 +2260,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2299,9 +2300,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2378,310 +2379,310 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Summer'!B2*Scenarios!$B$6</f>
-        <v>38.211114204085192</v>
+        <v>39.171144567227003</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Summer'!C2*Scenarios!$B$6</f>
-        <v>34.868795118887498</v>
+        <v>35.744851803900993</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Summer'!D2*Scenarios!$B$6</f>
-        <v>33.392433314383005</v>
+        <v>34.231397331756995</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Summer'!E2*Scenarios!$B$6</f>
-        <v>32.787535075037411</v>
+        <v>33.611301402197995</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Summer'!F2*Scenarios!$B$6</f>
-        <v>32.941322763006632</v>
+        <v>33.768952909713001</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Summer'!G2*Scenarios!$B$6</f>
-        <v>37.288388076269875</v>
+        <v>38.225235522136998</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Summer'!H2*Scenarios!$B$6</f>
-        <v>38.867275006087183</v>
+        <v>39.843790999290995</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Summer'!I2*Scenarios!$B$6</f>
-        <v>38.867275006087183</v>
+        <v>39.843790999290995</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Summer'!J2*Scenarios!$B$6</f>
-        <v>40.846009924624468</v>
+        <v>41.872240395984001</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Summer'!K2*Scenarios!$B$6</f>
-        <v>40.948535049937277</v>
+        <v>41.977341400993993</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Summer'!L2*Scenarios!$B$6</f>
-        <v>40.846009924624468</v>
+        <v>41.872240395984001</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Summer'!M2*Scenarios!$B$6</f>
-        <v>41.020302637656243</v>
+        <v>42.050912104500995</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Summer'!N2*Scenarios!$B$6</f>
-        <v>40.435909423373211</v>
+        <v>41.451836375943998</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Summer'!O2*Scenarios!$B$6</f>
-        <v>40.179596610091181</v>
+        <v>41.189083863418993</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Summer'!P2*Scenarios!$B$6</f>
-        <v>39.338890582526119</v>
+        <v>40.327255622336992</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Summer'!Q2*Scenarios!$B$6</f>
-        <v>38.129094103834937</v>
+        <v>39.087063763218993</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Summer'!R2*Scenarios!$B$6</f>
-        <v>35.86328883442178</v>
+        <v>36.764331552497993</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Summer'!S2*Scenarios!$B$6</f>
-        <v>38.313639329397994</v>
+        <v>39.276245572236995</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Summer'!T2*Scenarios!$B$6</f>
-        <v>39.779748621371212</v>
+        <v>40.779189943879992</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Summer'!U2*Scenarios!$B$6</f>
-        <v>40.907524999812154</v>
+        <v>41.935300998989995</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Summer'!V2*Scenarios!$B$6</f>
-        <v>40.025808922121968</v>
+        <v>41.031432355903995</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Summer'!W2*Scenarios!$B$6</f>
-        <v>40.846009924624468</v>
+        <v>41.872240395984001</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Summer'!X2*Scenarios!$B$6</f>
-        <v>40.763989824374214</v>
+        <v>41.788159591975997</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Summer'!Y2*Scenarios!$B$6</f>
-        <v>39.103082794306658</v>
+        <v>40.085523310813997</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Summer'!B3*Scenarios!$B$6</f>
-        <v>40.681969724123967</v>
+        <v>41.704078787967994</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Summer'!C3*Scenarios!$B$6</f>
-        <v>35.883793859484342</v>
+        <v>36.785351753499995</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Summer'!D3*Scenarios!$B$6</f>
-        <v>39.164597869494344</v>
+        <v>40.148583913819998</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Summer'!E3*Scenarios!$B$6</f>
-        <v>37.831771240427777</v>
+        <v>38.782270848689997</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Summer'!F3*Scenarios!$B$6</f>
-        <v>38.559699630148749</v>
+        <v>39.528487984260998</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Summer'!G3*Scenarios!$B$6</f>
-        <v>39.164597869494344</v>
+        <v>40.148583913819998</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Summer'!H3*Scenarios!$B$6</f>
-        <v>38.149599128897499</v>
+        <v>39.108083964220995</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Summer'!I3*Scenarios!$B$6</f>
-        <v>41.194595350688026</v>
+        <v>42.229583813017996</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Summer'!J3*Scenarios!$B$6</f>
-        <v>43.921763684008845</v>
+        <v>45.025270546283998</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Summer'!K3*Scenarios!$B$6</f>
-        <v>44.116561422103182</v>
+        <v>45.224962455802995</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Summer'!L3*Scenarios!$B$6</f>
-        <v>44.547166948417001</v>
+        <v>45.666386676845001</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Summer'!M3*Scenarios!$B$6</f>
-        <v>45.387872975982063</v>
+        <v>46.528214917927002</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Summer'!N3*Scenarios!$B$6</f>
-        <v>46.10554885317174</v>
+        <v>47.263921952996995</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Summer'!O3*Scenarios!$B$6</f>
-        <v>47.305092819331648</v>
+        <v>48.493603711614</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Summer'!P3*Scenarios!$B$6</f>
-        <v>45.510903126357434</v>
+        <v>46.654336123938997</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Summer'!Q3*Scenarios!$B$6</f>
-        <v>44.09605639704062</v>
+        <v>45.203942254800992</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Summer'!R3*Scenarios!$B$6</f>
-        <v>43.942268709071399</v>
+        <v>45.046290747285994</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Summer'!S3*Scenarios!$B$6</f>
-        <v>44.834237299292866</v>
+        <v>45.960669490872995</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Summer'!T3*Scenarios!$B$6</f>
-        <v>45.080297600043615</v>
+        <v>46.212911902896998</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Summer'!U3*Scenarios!$B$6</f>
-        <v>46.033781265452774</v>
+        <v>47.190351249489993</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Summer'!V3*Scenarios!$B$6</f>
-        <v>46.597669454673245</v>
+        <v>47.768406777045001</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Summer'!W3*Scenarios!$B$6</f>
-        <v>47.315345331862929</v>
+        <v>48.504113812114994</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Summer'!X3*Scenarios!$B$6</f>
-        <v>46.10554885317174</v>
+        <v>47.263921952996995</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Summer'!Y3*Scenarios!$B$6</f>
-        <v>43.57317825794528</v>
+        <v>44.667927129249996</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Summer'!B4*Scenarios!$B$6</f>
-        <v>34.233139341948068</v>
+        <v>35.093225572838996</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Summer'!C4*Scenarios!$B$6</f>
-        <v>31.598243621408788</v>
+        <v>32.392129744081998</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Summer'!D4*Scenarios!$B$6</f>
-        <v>29.619508702871507</v>
+        <v>30.363680347389</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Summer'!E4*Scenarios!$B$6</f>
-        <v>29.147893126432571</v>
+        <v>29.880215724342996</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Summer'!F4*Scenarios!$B$6</f>
-        <v>30.152639354498131</v>
+        <v>30.910205573440997</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Summer'!G4*Scenarios!$B$6</f>
-        <v>35.258390595076193</v>
+        <v>36.144235622939</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Summer'!H4*Scenarios!$B$6</f>
-        <v>46.382366691516339</v>
+        <v>47.547694666524002</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Summer'!I4*Scenarios!$B$6</f>
-        <v>44.003783784259092</v>
+        <v>45.109351350292002</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Summer'!J4*Scenarios!$B$6</f>
-        <v>46.013276240390212</v>
+        <v>47.169331048487997</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Summer'!K4*Scenarios!$B$6</f>
-        <v>45.418630513575899</v>
+        <v>46.559745219429992</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Summer'!L4*Scenarios!$B$6</f>
-        <v>42.09681645344078</v>
+        <v>43.154472657105998</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Summer'!M4*Scenarios!$B$6</f>
-        <v>40.907524999812154</v>
+        <v>41.935300998989995</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Summer'!N4*Scenarios!$B$6</f>
-        <v>45.295600363200528</v>
+        <v>46.433624013417997</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Summer'!O4*Scenarios!$B$6</f>
-        <v>46.320851616328646</v>
+        <v>47.484634063517994</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Summer'!P4*Scenarios!$B$6</f>
-        <v>46.013276240390212</v>
+        <v>47.169331048487997</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Summer'!Q4*Scenarios!$B$6</f>
-        <v>45.46989307623231</v>
+        <v>46.612295721934998</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Summer'!R4*Scenarios!$B$6</f>
-        <v>45.46989307623231</v>
+        <v>46.612295721934998</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Summer'!S4*Scenarios!$B$6</f>
-        <v>46.013276240390212</v>
+        <v>47.169331048487997</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Summer'!T4*Scenarios!$B$6</f>
-        <v>47.346102869456772</v>
+        <v>48.535644113617998</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Summer'!U4*Scenarios!$B$6</f>
-        <v>49.089029999774588</v>
+        <v>50.322361198788002</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Summer'!V4*Scenarios!$B$6</f>
-        <v>52.472359135097392</v>
+        <v>53.790694364117996</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Summer'!W4*Scenarios!$B$6</f>
-        <v>57.096242286705234</v>
+        <v>58.530749690068994</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Summer'!X4*Scenarios!$B$6</f>
-        <v>52.052006121314868</v>
+        <v>53.359780243576999</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Summer'!Y4*Scenarios!$B$6</f>
-        <v>46.13630639076559</v>
+        <v>47.295452254499999</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2707,7 +2708,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2747,9 +2748,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2826,310 +2827,310 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Flexibility, Summer'!B2*Scenarios!$B$6</f>
-        <v>38.523815836289259</v>
+        <v>39.49170263250749</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Flexibility, Summer'!C2*Scenarios!$B$6</f>
-        <v>38.523815836289259</v>
+        <v>39.49170263250749</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Flexibility, Summer'!D2*Scenarios!$B$6</f>
-        <v>38.523815836289259</v>
+        <v>39.49170263250749</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Flexibility, Summer'!E2*Scenarios!$B$6</f>
-        <v>38.523815836289259</v>
+        <v>39.49170263250749</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Flexibility, Summer'!F2*Scenarios!$B$6</f>
-        <v>38.523815836289259</v>
+        <v>39.49170263250749</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Flexibility, Summer'!G2*Scenarios!$B$6</f>
-        <v>38.523815836289259</v>
+        <v>39.49170263250749</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Flexibility, Summer'!H2*Scenarios!$B$6</f>
-        <v>38.523815836289259</v>
+        <v>39.49170263250749</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Flexibility, Summer'!I2*Scenarios!$B$6</f>
-        <v>38.523815836289259</v>
+        <v>39.49170263250749</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Flexibility, Summer'!J2*Scenarios!$B$6</f>
-        <v>38.523815836289259</v>
+        <v>39.49170263250749</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Flexibility, Summer'!K2*Scenarios!$B$6</f>
-        <v>38.523815836289259</v>
+        <v>39.49170263250749</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Flexibility, Summer'!L2*Scenarios!$B$6</f>
-        <v>38.523815836289259</v>
+        <v>39.49170263250749</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Flexibility, Summer'!M2*Scenarios!$B$6</f>
-        <v>38.523815836289259</v>
+        <v>39.49170263250749</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Flexibility, Summer'!N2*Scenarios!$B$6</f>
-        <v>38.523815836289259</v>
+        <v>39.49170263250749</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Flexibility, Summer'!O2*Scenarios!$B$6</f>
-        <v>38.523815836289259</v>
+        <v>39.49170263250749</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Flexibility, Summer'!P2*Scenarios!$B$6</f>
-        <v>38.523815836289259</v>
+        <v>39.49170263250749</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Flexibility, Summer'!Q2*Scenarios!$B$6</f>
-        <v>38.523815836289259</v>
+        <v>39.49170263250749</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Flexibility, Summer'!R2*Scenarios!$B$6</f>
-        <v>38.523815836289259</v>
+        <v>39.49170263250749</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Flexibility, Summer'!S2*Scenarios!$B$6</f>
-        <v>38.523815836289259</v>
+        <v>39.49170263250749</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Flexibility, Summer'!T2*Scenarios!$B$6</f>
-        <v>38.523815836289259</v>
+        <v>39.49170263250749</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Flexibility, Summer'!U2*Scenarios!$B$6</f>
-        <v>38.523815836289259</v>
+        <v>39.49170263250749</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Flexibility, Summer'!V2*Scenarios!$B$6</f>
-        <v>38.523815836289259</v>
+        <v>39.49170263250749</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Flexibility, Summer'!W2*Scenarios!$B$6</f>
-        <v>38.523815836289259</v>
+        <v>39.49170263250749</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Flexibility, Summer'!X2*Scenarios!$B$6</f>
-        <v>38.523815836289259</v>
+        <v>39.49170263250749</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Flexibility, Summer'!Y2*Scenarios!$B$6</f>
-        <v>38.523815836289259</v>
+        <v>39.49170263250749</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Flexibility, Summer'!B3*Scenarios!$B$6</f>
-        <v>43.129329902945223</v>
+        <v>44.212927361727537</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Flexibility, Summer'!C3*Scenarios!$B$6</f>
-        <v>43.129329902945223</v>
+        <v>44.212927361727537</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Flexibility, Summer'!D3*Scenarios!$B$6</f>
-        <v>43.129329902945223</v>
+        <v>44.212927361727537</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Flexibility, Summer'!E3*Scenarios!$B$6</f>
-        <v>43.129329902945223</v>
+        <v>44.212927361727537</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Flexibility, Summer'!F3*Scenarios!$B$6</f>
-        <v>43.129329902945223</v>
+        <v>44.212927361727537</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Flexibility, Summer'!G3*Scenarios!$B$6</f>
-        <v>43.129329902945223</v>
+        <v>44.212927361727537</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Flexibility, Summer'!H3*Scenarios!$B$6</f>
-        <v>43.129329902945223</v>
+        <v>44.212927361727537</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Flexibility, Summer'!I3*Scenarios!$B$6</f>
-        <v>43.129329902945223</v>
+        <v>44.212927361727537</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Flexibility, Summer'!J3*Scenarios!$B$6</f>
-        <v>43.129329902945223</v>
+        <v>44.212927361727537</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Flexibility, Summer'!K3*Scenarios!$B$6</f>
-        <v>43.129329902945223</v>
+        <v>44.212927361727537</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Flexibility, Summer'!L3*Scenarios!$B$6</f>
-        <v>43.129329902945223</v>
+        <v>44.212927361727537</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Flexibility, Summer'!M3*Scenarios!$B$6</f>
-        <v>43.129329902945223</v>
+        <v>44.212927361727537</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Flexibility, Summer'!N3*Scenarios!$B$6</f>
-        <v>43.129329902945223</v>
+        <v>44.212927361727537</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Flexibility, Summer'!O3*Scenarios!$B$6</f>
-        <v>43.129329902945223</v>
+        <v>44.212927361727537</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Flexibility, Summer'!P3*Scenarios!$B$6</f>
-        <v>43.129329902945223</v>
+        <v>44.212927361727537</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Flexibility, Summer'!Q3*Scenarios!$B$6</f>
-        <v>43.129329902945223</v>
+        <v>44.212927361727537</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Flexibility, Summer'!R3*Scenarios!$B$6</f>
-        <v>43.129329902945223</v>
+        <v>44.212927361727537</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Flexibility, Summer'!S3*Scenarios!$B$6</f>
-        <v>43.129329902945223</v>
+        <v>44.212927361727537</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Flexibility, Summer'!T3*Scenarios!$B$6</f>
-        <v>43.129329902945223</v>
+        <v>44.212927361727537</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Flexibility, Summer'!U3*Scenarios!$B$6</f>
-        <v>43.129329902945223</v>
+        <v>44.212927361727537</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Flexibility, Summer'!V3*Scenarios!$B$6</f>
-        <v>43.129329902945223</v>
+        <v>44.212927361727537</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Flexibility, Summer'!W3*Scenarios!$B$6</f>
-        <v>43.129329902945223</v>
+        <v>44.212927361727537</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Flexibility, Summer'!X3*Scenarios!$B$6</f>
-        <v>43.129329902945223</v>
+        <v>44.212927361727537</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Flexibility, Summer'!Y3*Scenarios!$B$6</f>
-        <v>43.129329902945223</v>
+        <v>44.212927361727537</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Flexibility, Summer'!B4*Scenarios!$B$6</f>
-        <v>43.066960451713257</v>
+        <v>44.148990917013116</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Flexibility, Summer'!C4*Scenarios!$B$6</f>
-        <v>43.066960451713257</v>
+        <v>44.148990917013116</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Flexibility, Summer'!D4*Scenarios!$B$6</f>
-        <v>43.066960451713257</v>
+        <v>44.148990917013116</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Flexibility, Summer'!E4*Scenarios!$B$6</f>
-        <v>43.066960451713257</v>
+        <v>44.148990917013116</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Flexibility, Summer'!F4*Scenarios!$B$6</f>
-        <v>43.066960451713257</v>
+        <v>44.148990917013116</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Flexibility, Summer'!G4*Scenarios!$B$6</f>
-        <v>43.066960451713257</v>
+        <v>44.148990917013116</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Flexibility, Summer'!H4*Scenarios!$B$6</f>
-        <v>43.066960451713257</v>
+        <v>44.148990917013116</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Flexibility, Summer'!I4*Scenarios!$B$6</f>
-        <v>43.066960451713257</v>
+        <v>44.148990917013116</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Flexibility, Summer'!J4*Scenarios!$B$6</f>
-        <v>43.066960451713257</v>
+        <v>44.148990917013116</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Flexibility, Summer'!K4*Scenarios!$B$6</f>
-        <v>43.066960451713257</v>
+        <v>44.148990917013116</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Flexibility, Summer'!L4*Scenarios!$B$6</f>
-        <v>43.066960451713257</v>
+        <v>44.148990917013116</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Flexibility, Summer'!M4*Scenarios!$B$6</f>
-        <v>43.066960451713257</v>
+        <v>44.148990917013116</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Flexibility, Summer'!N4*Scenarios!$B$6</f>
-        <v>43.066960451713257</v>
+        <v>44.148990917013116</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Flexibility, Summer'!O4*Scenarios!$B$6</f>
-        <v>43.066960451713257</v>
+        <v>44.148990917013116</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Flexibility, Summer'!P4*Scenarios!$B$6</f>
-        <v>43.066960451713257</v>
+        <v>44.148990917013116</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Flexibility, Summer'!Q4*Scenarios!$B$6</f>
-        <v>43.066960451713257</v>
+        <v>44.148990917013116</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Flexibility, Summer'!R4*Scenarios!$B$6</f>
-        <v>43.066960451713257</v>
+        <v>44.148990917013116</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Flexibility, Summer'!S4*Scenarios!$B$6</f>
-        <v>43.066960451713257</v>
+        <v>44.148990917013116</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Flexibility, Summer'!T4*Scenarios!$B$6</f>
-        <v>43.066960451713257</v>
+        <v>44.148990917013116</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Flexibility, Summer'!U4*Scenarios!$B$6</f>
-        <v>43.066960451713257</v>
+        <v>44.148990917013116</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Flexibility, Summer'!V4*Scenarios!$B$6</f>
-        <v>43.066960451713257</v>
+        <v>44.148990917013116</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Flexibility, Summer'!W4*Scenarios!$B$6</f>
-        <v>43.066960451713257</v>
+        <v>44.148990917013116</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Flexibility, Summer'!X4*Scenarios!$B$6</f>
-        <v>43.066960451713257</v>
+        <v>44.148990917013116</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Flexibility, Summer'!Y4*Scenarios!$B$6</f>
-        <v>43.066960451713257</v>
+        <v>44.148990917013116</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -3155,7 +3156,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>

--- a/data/IEEE9/Market Data/ieee9_market_data_2025.xlsx
+++ b/data/IEEE9/Market Data/ieee9_market_data_2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14050150-19EF-414F-BBD2-7B04AF656E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2862CB0F-5878-4AED-A19A-5849C7D1C3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12645" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/IEEE9/Market Data/ieee9_market_data_2025.xlsx
+++ b/data/IEEE9/Market Data/ieee9_market_data_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2862CB0F-5878-4AED-A19A-5849C7D1C3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03749700-5F1B-481D-B886-90607EAAA66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/IEEE9/Market Data/ieee9_market_data_2025.xlsx
+++ b/data/IEEE9/Market Data/ieee9_market_data_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03749700-5F1B-481D-B886-90607EAAA66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6B4A48-42AA-481D-9EF4-3A45FC6D0051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
